--- a/TSGH/Neurobit database_20210523.xlsx
+++ b/TSGH/Neurobit database_20210523.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy_analysis\TSGH_Project\TSGH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2206,7 +2206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2231,6 +2231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2244,7 +2250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2295,6 +2301,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2611,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -11884,64 +11900,64 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="3:36" x14ac:dyDescent="0.45">
-      <c r="C138" s="28">
+    <row r="138" spans="3:36" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C138" s="30">
         <v>3136215</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="D138" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E138" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="31">
         <v>59</v>
       </c>
-      <c r="G138" s="21">
+      <c r="G138" s="32">
         <v>44431</v>
       </c>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20">
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31">
         <v>183</v>
       </c>
-      <c r="K138" s="20">
+      <c r="K138" s="31">
         <v>0.4</v>
       </c>
-      <c r="L138" s="20">
+      <c r="L138" s="31">
         <v>0.6</v>
       </c>
-      <c r="M138" s="20">
-        <v>1</v>
-      </c>
-      <c r="N138" s="20">
+      <c r="M138" s="31">
+        <v>1</v>
+      </c>
+      <c r="N138" s="31">
         <v>0.7</v>
       </c>
-      <c r="O138" s="20"/>
-      <c r="P138" s="20"/>
-      <c r="Q138" s="20">
+      <c r="O138" s="31"/>
+      <c r="P138" s="31"/>
+      <c r="Q138" s="31">
         <v>63</v>
       </c>
-      <c r="R138" s="20"/>
-      <c r="S138" s="20"/>
-      <c r="T138" s="20"/>
-      <c r="U138" s="20"/>
-      <c r="V138" s="20">
+      <c r="R138" s="31"/>
+      <c r="S138" s="31"/>
+      <c r="T138" s="31"/>
+      <c r="U138" s="31"/>
+      <c r="V138" s="31">
         <v>67</v>
       </c>
-      <c r="W138" s="20"/>
-      <c r="X138" s="20"/>
-      <c r="Y138" s="20"/>
-      <c r="Z138" s="20"/>
-      <c r="AA138" s="20"/>
-      <c r="AB138" s="20"/>
-      <c r="AC138" s="20"/>
-      <c r="AD138" s="20"/>
-      <c r="AE138" s="20"/>
-      <c r="AF138" s="20"/>
-      <c r="AG138" s="20"/>
-      <c r="AH138" s="20"/>
-      <c r="AI138" s="20"/>
+      <c r="W138" s="31"/>
+      <c r="X138" s="31"/>
+      <c r="Y138" s="31"/>
+      <c r="Z138" s="31"/>
+      <c r="AA138" s="31"/>
+      <c r="AB138" s="31"/>
+      <c r="AC138" s="31"/>
+      <c r="AD138" s="31"/>
+      <c r="AE138" s="31"/>
+      <c r="AF138" s="31"/>
+      <c r="AG138" s="31"/>
+      <c r="AH138" s="31"/>
+      <c r="AI138" s="31"/>
     </row>
     <row r="139" spans="3:36" x14ac:dyDescent="0.45">
       <c r="C139" s="28">
@@ -12069,62 +12085,62 @@
       <c r="AH140" s="20"/>
       <c r="AI140" s="20"/>
     </row>
-    <row r="141" spans="3:36" x14ac:dyDescent="0.45">
-      <c r="C141" s="28">
+    <row r="141" spans="3:36" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C141" s="30">
         <v>2408132</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="D141" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E141" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F141" s="20">
+      <c r="F141" s="31">
         <v>67</v>
       </c>
-      <c r="G141" s="21">
+      <c r="G141" s="32">
         <v>44432</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20">
+      <c r="I141" s="31"/>
+      <c r="J141" s="31">
         <v>170</v>
       </c>
-      <c r="K141" s="20">
+      <c r="K141" s="31">
         <v>0.8</v>
       </c>
-      <c r="L141" s="20">
+      <c r="L141" s="31">
         <v>0.3</v>
       </c>
-      <c r="M141" s="20"/>
-      <c r="N141" s="20"/>
-      <c r="O141" s="20"/>
-      <c r="P141" s="20"/>
-      <c r="Q141" s="20" t="s">
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="31"/>
+      <c r="P141" s="31"/>
+      <c r="Q141" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="R141" s="20"/>
-      <c r="S141" s="20"/>
-      <c r="T141" s="20"/>
-      <c r="U141" s="20"/>
-      <c r="V141" s="20">
+      <c r="R141" s="31"/>
+      <c r="S141" s="31"/>
+      <c r="T141" s="31"/>
+      <c r="U141" s="31"/>
+      <c r="V141" s="31">
         <v>69</v>
       </c>
-      <c r="W141" s="20"/>
-      <c r="X141" s="20"/>
-      <c r="Y141" s="20"/>
-      <c r="Z141" s="20"/>
-      <c r="AA141" s="20"/>
-      <c r="AB141" s="20"/>
-      <c r="AC141" s="20"/>
-      <c r="AD141" s="20"/>
-      <c r="AE141" s="20"/>
-      <c r="AF141" s="20"/>
-      <c r="AG141" s="20"/>
-      <c r="AH141" s="20"/>
-      <c r="AI141" s="20"/>
+      <c r="W141" s="31"/>
+      <c r="X141" s="31"/>
+      <c r="Y141" s="31"/>
+      <c r="Z141" s="31"/>
+      <c r="AA141" s="31"/>
+      <c r="AB141" s="31"/>
+      <c r="AC141" s="31"/>
+      <c r="AD141" s="31"/>
+      <c r="AE141" s="31"/>
+      <c r="AF141" s="31"/>
+      <c r="AG141" s="31"/>
+      <c r="AH141" s="31"/>
+      <c r="AI141" s="31"/>
     </row>
     <row r="142" spans="3:36" x14ac:dyDescent="0.45">
       <c r="C142" s="28">
@@ -14099,79 +14115,79 @@
       <c r="AI168" s="20"/>
       <c r="AJ168" s="20"/>
     </row>
-    <row r="169" spans="3:36" x14ac:dyDescent="0.45">
-      <c r="C169" s="20">
+    <row r="169" spans="3:36" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C169" s="31">
         <v>3122217</v>
       </c>
-      <c r="D169" s="20" t="s">
+      <c r="D169" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="E169" s="20" t="s">
+      <c r="E169" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="31">
         <v>30</v>
       </c>
-      <c r="G169" s="21">
+      <c r="G169" s="32">
         <v>44505</v>
       </c>
-      <c r="H169" s="20" t="s">
+      <c r="H169" s="31" t="s">
         <v>536</v>
       </c>
-      <c r="I169" s="20" t="s">
+      <c r="I169" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="J169" s="20">
+      <c r="J169" s="31">
         <v>153</v>
       </c>
-      <c r="K169" s="20">
+      <c r="K169" s="31">
         <v>0.05</v>
       </c>
-      <c r="L169" s="20">
+      <c r="L169" s="31">
         <v>0.2</v>
       </c>
-      <c r="M169" s="20">
-        <v>1</v>
-      </c>
-      <c r="N169" s="20">
-        <v>1</v>
-      </c>
-      <c r="O169" s="20"/>
-      <c r="P169" s="20"/>
-      <c r="Q169" s="20">
+      <c r="M169" s="31">
+        <v>1</v>
+      </c>
+      <c r="N169" s="31">
+        <v>1</v>
+      </c>
+      <c r="O169" s="31"/>
+      <c r="P169" s="31"/>
+      <c r="Q169" s="31">
         <v>12.5</v>
       </c>
-      <c r="R169" s="20">
+      <c r="R169" s="31">
         <v>12.2</v>
       </c>
-      <c r="S169" s="20">
+      <c r="S169" s="31">
         <v>12.3</v>
       </c>
-      <c r="T169" s="20">
+      <c r="T169" s="31">
         <v>26.79</v>
       </c>
-      <c r="U169" s="20">
+      <c r="U169" s="31">
         <v>26.75</v>
       </c>
-      <c r="V169" s="20">
+      <c r="V169" s="31">
         <v>57</v>
       </c>
-      <c r="W169" s="20"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="20"/>
-      <c r="AB169" s="20">
+      <c r="W169" s="31"/>
+      <c r="X169" s="31"/>
+      <c r="Y169" s="31"/>
+      <c r="Z169" s="31"/>
+      <c r="AA169" s="31"/>
+      <c r="AB169" s="31">
         <v>4</v>
       </c>
-      <c r="AC169" s="20"/>
-      <c r="AD169" s="20"/>
-      <c r="AE169" s="20"/>
-      <c r="AF169" s="20"/>
-      <c r="AG169" s="20"/>
-      <c r="AH169" s="20"/>
-      <c r="AI169" s="20"/>
-      <c r="AJ169" s="20"/>
+      <c r="AC169" s="31"/>
+      <c r="AD169" s="31"/>
+      <c r="AE169" s="31"/>
+      <c r="AF169" s="31"/>
+      <c r="AG169" s="31"/>
+      <c r="AH169" s="31"/>
+      <c r="AI169" s="31"/>
+      <c r="AJ169" s="31"/>
     </row>
     <row r="170" spans="3:36" x14ac:dyDescent="0.45">
       <c r="C170" s="20">
